--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\bldgs\BFoCSbQL\MEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="19420" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BFoCSbQL-residential" sheetId="3" r:id="rId2"/>
     <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -54,20 +59,20 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>We currently do not differentiate by building component quality level</t>
-  </si>
-  <si>
-    <t>in the Mexico version of the model.</t>
+    <t>not necessary</t>
+  </si>
+  <si>
+    <t>For Mexico, all building components should comply with the standard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Mexico there are no yet rebate-qualifying. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,14 +82,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,17 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,12 +126,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +209,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,29 +479,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -483,12 +507,14 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -496,10 +522,10 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -507,10 +533,10 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -518,10 +544,10 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -529,10 +555,10 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -540,10 +566,10 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -551,10 +577,10 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -562,10 +588,10 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -582,12 +608,14 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,10 +623,10 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -606,10 +634,10 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -617,10 +645,10 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -628,10 +656,10 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -639,10 +667,10 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -650,10 +678,10 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -661,10 +689,10 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\bldgs\BFoCSbQL\MEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BFoCSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BFoCSbQL-residential" sheetId="3" r:id="rId2"/>
-    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
+    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>U.S. Department of Energy</t>
+  </si>
+  <si>
     <t>lighting</t>
   </si>
   <si>
@@ -35,6 +40,183 @@
     <t>other</t>
   </si>
   <si>
+    <t>Subscript</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>ENERGY STAR fraction</t>
+  </si>
+  <si>
+    <t>Table Reference</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Central AC</t>
+  </si>
+  <si>
+    <t>9.1.10</t>
+  </si>
+  <si>
+    <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.10.xlsx</t>
+  </si>
+  <si>
+    <t>Air-Source Heat Pumps</t>
+  </si>
+  <si>
+    <t>Geothermal Heat Pumps</t>
+  </si>
+  <si>
+    <t>Gas Furnaces</t>
+  </si>
+  <si>
+    <t>Gas Boilers</t>
+  </si>
+  <si>
+    <t>Oil Boilers</t>
+  </si>
+  <si>
+    <t>Oil Furnaces</t>
+  </si>
+  <si>
+    <t>9.1.11</t>
+  </si>
+  <si>
+    <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.11.xlsx</t>
+  </si>
+  <si>
+    <t>Shipments</t>
+  </si>
+  <si>
+    <t>9.1.12</t>
+  </si>
+  <si>
+    <t>Medium Screw-Base Lamps</t>
+  </si>
+  <si>
+    <t>9.1.9</t>
+  </si>
+  <si>
+    <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.9.xlsx</t>
+  </si>
+  <si>
+    <t>dishwashers</t>
+  </si>
+  <si>
+    <t>refrigerators</t>
+  </si>
+  <si>
+    <t>clothes washers</t>
+  </si>
+  <si>
+    <t>9.1.8</t>
+  </si>
+  <si>
+    <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx</t>
+  </si>
+  <si>
+    <t>other (commercial)</t>
+  </si>
+  <si>
+    <t>commercial refrigeration</t>
+  </si>
+  <si>
+    <t>hot food holding cabinets</t>
+  </si>
+  <si>
+    <t>commercial steam cookers</t>
+  </si>
+  <si>
+    <t>cold beverage vending machines</t>
+  </si>
+  <si>
+    <t>bottled water coolers</t>
+  </si>
+  <si>
+    <t>appliances (residential)</t>
+  </si>
+  <si>
+    <t>appliances (commercial)</t>
+  </si>
+  <si>
+    <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.12.xlsx</t>
+  </si>
+  <si>
+    <t>commercial dishwashers</t>
+  </si>
+  <si>
+    <t>ice machines</t>
+  </si>
+  <si>
+    <t>commercial fryers</t>
+  </si>
+  <si>
+    <t>other (residential)</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>telephony</t>
+  </si>
+  <si>
+    <t>DVD/VCR</t>
+  </si>
+  <si>
+    <t>audio/video</t>
+  </si>
+  <si>
+    <t>battery charging system</t>
+  </si>
+  <si>
+    <t>The table below includes the most important/relevant elements for each subscript, taken from a variety of tables</t>
+  </si>
+  <si>
+    <t>in the DOE Buildings Energy Data Book.  Generally, items with high sales figures and low energy consumption are excluded,</t>
+  </si>
+  <si>
+    <t>so they do not dominate the ENERGY STAR compliance fraction calculation.</t>
+  </si>
+  <si>
+    <t>Another example is the exclusion of external power supplies (power strips) from the "Other" category.</t>
+  </si>
+  <si>
+    <t>9.1.13</t>
+  </si>
+  <si>
+    <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx</t>
+  </si>
+  <si>
+    <t>computers</t>
+  </si>
+  <si>
+    <t>monitors</t>
+  </si>
+  <si>
+    <t>printers</t>
+  </si>
+  <si>
+    <t>fascimile</t>
+  </si>
+  <si>
+    <t>copiers</t>
+  </si>
+  <si>
+    <t>scanners</t>
+  </si>
+  <si>
+    <t>multi-function devices</t>
+  </si>
+  <si>
+    <t>9.1.14</t>
+  </si>
+  <si>
+    <t>http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.14.xlsx</t>
+  </si>
+  <si>
     <t>BFoCSbQL BAU Fraction of Components Sold by Quality Level</t>
   </si>
   <si>
@@ -44,9 +226,6 @@
     <t>heating</t>
   </si>
   <si>
-    <t>Building component</t>
-  </si>
-  <si>
     <t>envelope</t>
   </si>
   <si>
@@ -56,23 +235,47 @@
     <t>rebate-qualifying</t>
   </si>
   <si>
+    <t>For instance, cooling and ventilation is based on major system components (central AC, heat pumps), rather than fans.</t>
+  </si>
+  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>not necessary</t>
-  </si>
-  <si>
-    <t>For Mexico, all building components should comply with the standard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Mexico there are no yet rebate-qualifying. </t>
+    <t>Since we do not have data for envelope components, we assume the fraction</t>
+  </si>
+  <si>
+    <t>is the average of the fractions of the "heating" and "cooling and ventilation"</t>
+  </si>
+  <si>
+    <t>components.</t>
+  </si>
+  <si>
+    <t>Buildings Energy Data Book (2011 edition)</t>
+  </si>
+  <si>
+    <t>See next tab for table numbers and links</t>
+  </si>
+  <si>
+    <t>For the U.S., we use the same fractions for urban residential and rural residential.</t>
+  </si>
+  <si>
+    <t>Dimensionless fraction of total components</t>
+  </si>
+  <si>
+    <t>This variable captures what BAU fraction of new building components qualify</t>
+  </si>
+  <si>
+    <t>for energy efficient rebates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +291,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,19 +336,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -134,7 +400,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,23 +475,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -261,23 +510,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
@@ -468,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,22 +708,57 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2012</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -502,102 +769,653 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2197000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>192000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>123000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8">
+        <v>56000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="C12" s="13">
+        <v>3519000</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1652000</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>128000</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1658000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <f>5.6*10^6</f>
+        <v>5600000</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <f>9.4*10^6</f>
+        <v>9400000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <f>8.2*10^6</f>
+        <v>8199999.9999999991</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>317000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1454000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2">
+        <v>38000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2">
+        <v>111000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2">
+        <v>84000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>37000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8">
+        <v>243000</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42743000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>28656</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1684000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>32919000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42674000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2">
+        <f>69.5*10^6</f>
+        <v>69500000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2">
+        <f>28.2*10^6</f>
+        <v>28200000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2">
+        <f>7.8*10^6</f>
+        <v>7800000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2">
+        <f>3.7*10^6</f>
+        <v>3700000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2">
+        <f>0.2*10^6</f>
+        <v>200000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2">
+        <f>0.7*10^6</f>
+        <v>700000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="2">
+        <f>20.2*10^6</f>
+        <v>20200000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F15" r:id="rId8"/>
+    <hyperlink ref="F16" r:id="rId9"/>
+    <hyperlink ref="F17:F18" r:id="rId10" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.8.xlsx"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F27" r:id="rId12"/>
+    <hyperlink ref="F28:F31" r:id="rId13" display="http://buildingsdatabook.eren.doe.gov/docs/xls_pdf/9.1.13.xlsx"/>
+    <hyperlink ref="F20" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F25" r:id="rId16"/>
+    <hyperlink ref="F26" r:id="rId17"/>
+    <hyperlink ref="F22" r:id="rId18"/>
+    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="F24" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -608,96 +1426,334 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.40218068535825546</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.59781931464174454</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56609034267912772</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.43390965732087228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32982758620689656</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48876582108507738</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
+        <v>0.51123417891492262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:C3 B5:C7 B4" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.40218068535825546</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56609034267912772</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32982758620689656</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48876582108507738</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
+        <v>0.51123417891492262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.40218068535825546</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56609034267912772</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53711053089643168</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C19:C26,Data!D19:D26)/SUM(Data!C19:C26)</f>
+        <v>0.46288946910356832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.30697620874904064</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C32:C38,Data!D32:D38)/SUM(Data!C32:C38)</f>
+        <v>0.69302379125095936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:C3 C5:C7" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>